--- a/res/数据源_test1.xlsx
+++ b/res/数据源_test1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="10710" activeTab="9"/>
+    <workbookView windowHeight="17775" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="2025.1.1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="9">
   <si>
     <t>计数</t>
   </si>
@@ -60,6 +60,9 @@
   </si>
   <si>
     <t>饭碗</t>
+  </si>
+  <si>
+    <t>title</t>
   </si>
 </sst>
 </file>
@@ -1106,10 +1109,10 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C4:G14"/>
+  <dimension ref="C3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1117,6 +1120,15 @@
     <col min="1" max="3" width="9" style="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="3:7">
+      <c r="C3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
     <row r="4" spans="3:7">
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1210,6 +1222,9 @@
       <c r="D14" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/res/数据源_test1.xlsx
+++ b/res/数据源_test1.xlsx
@@ -228,12 +228,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -554,7 +560,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -578,16 +584,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -596,94 +602,100 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,7 +1124,7 @@
   <dimension ref="C3:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C4" sqref="C4:G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -1130,72 +1142,72 @@
       <c r="G3" s="1"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="3:7">
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <f t="shared" ref="G5:G7" si="0">E5*F5</f>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="3:7">
-      <c r="C6" s="1">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
         <v>10</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:7">
-      <c r="C7" s="1">
-        <v>3</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>10</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
